--- a/SCBAA/2019/NIR.xlsx
+++ b/SCBAA/2019/NIR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4C6E9-6059-4686-BC0A-81AE0CC64EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD3BAC-1FF7-45EC-91F8-53D715E715E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="1110" windowWidth="13425" windowHeight="12495" firstSheet="13" activeTab="17" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="12" activeTab="17" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacolod" sheetId="10" r:id="rId1"/>
@@ -32,13 +32,17 @@
     <sheet name="Tanjay" sheetId="34" r:id="rId17"/>
     <sheet name="Victorias" sheetId="35" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId19"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1633,179 +1637,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Comparison Conso Per Fund"/>
-      <sheetName val="Comparison Conso 2019"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
-        <row r="14">
-          <cell r="N14">
-            <v>13467491.51</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>21618541.449999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>64314907.770000003</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>6265670.7699999996</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="N22">
-            <v>10859313.439999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="N23">
-            <v>25095958.68</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="N24">
-            <v>4631727.22</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="N30">
-            <v>1112228954</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="N32">
-            <v>404035.11</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="N34">
-            <v>13417447.380000001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="N35">
-            <v>1477613.44</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="N37">
-            <v>2806893.6</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="N48">
-            <v>200544157.47</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="N49">
-            <v>222079657.34999999</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="N50">
-            <v>10951648</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="N54">
-            <v>11024062.74</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="N55">
-            <v>2600000</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="N59">
-            <v>60850192.329999998</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="N60">
-            <v>35660091.579999998</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="N61">
-            <v>7923600</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="N74">
-            <v>21930701.579999998</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="N75">
-            <v>74720786.370000005</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="N76">
-            <v>385540</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="N79">
-            <v>41464510.460000001</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="N80">
-            <v>76874685.150000006</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="N81">
-            <v>64370456.950000003</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="N93">
-            <v>7374008.04</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="N94">
-            <v>2236370</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="N98">
-            <v>205561269.88</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="N105">
-            <v>4382743.55</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="N106">
-            <v>341500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2105,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,7 +2095,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>790893414.82999992</v>
       </c>
     </row>
@@ -2318,7 +2148,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>132070260.63000001</v>
       </c>
     </row>
@@ -2434,7 +2263,6 @@
         <v>39</v>
       </c>
       <c r="E30" s="50">
-        <f>33405793.01+160866.4</f>
         <v>33566659.410000004</v>
       </c>
     </row>
@@ -2510,7 +2338,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2266974052.5299997</v>
       </c>
     </row>
@@ -3087,7 +2914,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>2201228909.1999998</v>
       </c>
     </row>
@@ -3262,7 +3088,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>88405307.329999998</v>
       </c>
     </row>
@@ -3274,7 +3099,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>2289634216.5299997</v>
       </c>
     </row>
@@ -3296,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C63FAB-F416-4509-96DA-4E54AB1A9B4D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,7 +3279,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>18059940.050000001</v>
       </c>
     </row>
@@ -3509,7 +3332,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>10394135.870000001</v>
       </c>
     </row>
@@ -3700,7 +3522,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>749644798</v>
       </c>
     </row>
@@ -4277,7 +4098,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>598136812.22000003</v>
       </c>
     </row>
@@ -4444,7 +4264,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="66">
-        <f>2019500+29876751.6+1515563.64</f>
         <v>33411815.240000002</v>
       </c>
     </row>
@@ -4453,7 +4272,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>40324725.240000002</v>
       </c>
     </row>
@@ -4465,7 +4283,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>638461537.46000004</v>
       </c>
     </row>
@@ -4487,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2217876-9BFF-4C47-90C8-35CEB7CE5387}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,7 +4430,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$14+'[1]Comparison Conso 2019'!$N$15</f>
         <v>35086032.960000001</v>
       </c>
     </row>
@@ -4625,7 +4441,6 @@
         <v>24</v>
       </c>
       <c r="E12" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$16</f>
         <v>64314907.770000003</v>
       </c>
     </row>
@@ -4637,7 +4452,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="99">
-        <f>'[1]Comparison Conso 2019'!$N$17</f>
         <v>6265670.7699999996</v>
       </c>
     </row>
@@ -4649,7 +4463,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>105666611.5</v>
       </c>
     </row>
@@ -4670,7 +4483,6 @@
         <v>26</v>
       </c>
       <c r="E16" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$22</f>
         <v>10859313.439999999</v>
       </c>
     </row>
@@ -4682,7 +4494,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$23</f>
         <v>25095958.68</v>
       </c>
     </row>
@@ -4694,7 +4505,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="99">
-        <f>'[1]Comparison Conso 2019'!$N$24</f>
         <v>4631727.22</v>
       </c>
     </row>
@@ -4706,7 +4516,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>40586999.339999996</v>
       </c>
     </row>
@@ -4727,7 +4536,6 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$30</f>
         <v>1112228954</v>
       </c>
     </row>
@@ -4739,7 +4547,6 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$32</f>
         <v>404035.11</v>
       </c>
     </row>
@@ -4824,7 +4631,6 @@
         <v>39</v>
       </c>
       <c r="E30" s="99">
-        <f>'[1]Comparison Conso 2019'!$N$34+'[1]Comparison Conso 2019'!$N$35</f>
         <v>14895060.82</v>
       </c>
     </row>
@@ -4856,7 +4662,6 @@
         <v>42</v>
       </c>
       <c r="E33" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$37</f>
         <v>2806893.6</v>
       </c>
     </row>
@@ -4901,7 +4706,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1276588554.3699996</v>
       </c>
     </row>
@@ -4947,7 +4751,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$48</f>
         <v>200544157.47</v>
       </c>
     </row>
@@ -4959,7 +4762,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$49</f>
         <v>222079657.34999999</v>
       </c>
     </row>
@@ -4971,7 +4773,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="99">
-        <f>'[1]Comparison Conso 2019'!$N$50</f>
         <v>10951648</v>
       </c>
     </row>
@@ -5003,7 +4804,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$54</f>
         <v>11024062.74</v>
       </c>
     </row>
@@ -5015,7 +4815,6 @@
         <v>12</v>
       </c>
       <c r="E48" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$55</f>
         <v>2600000</v>
       </c>
     </row>
@@ -5036,7 +4835,6 @@
         <v>10</v>
       </c>
       <c r="E50" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$59</f>
         <v>60850192.329999998</v>
       </c>
     </row>
@@ -5048,7 +4846,6 @@
         <v>11</v>
       </c>
       <c r="E51" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$60</f>
         <v>35660091.579999998</v>
       </c>
     </row>
@@ -5060,7 +4857,6 @@
         <v>12</v>
       </c>
       <c r="E52" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$61</f>
         <v>7923600</v>
       </c>
     </row>
@@ -5165,7 +4961,6 @@
         <v>10</v>
       </c>
       <c r="E62" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$74</f>
         <v>21930701.579999998</v>
       </c>
     </row>
@@ -5177,7 +4972,6 @@
         <v>11</v>
       </c>
       <c r="E63" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$75</f>
         <v>74720786.370000005</v>
       </c>
     </row>
@@ -5189,7 +4983,6 @@
         <v>12</v>
       </c>
       <c r="E64" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$76</f>
         <v>385540</v>
       </c>
     </row>
@@ -5210,7 +5003,6 @@
         <v>10</v>
       </c>
       <c r="E66" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$79</f>
         <v>41464510.460000001</v>
       </c>
     </row>
@@ -5222,7 +5014,6 @@
         <v>11</v>
       </c>
       <c r="E67" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$80</f>
         <v>76874685.150000006</v>
       </c>
     </row>
@@ -5234,7 +5025,6 @@
         <v>12</v>
       </c>
       <c r="E68" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$81</f>
         <v>64370456.950000003</v>
       </c>
     </row>
@@ -5337,7 +5127,6 @@
         <v>49</v>
       </c>
       <c r="E78" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$93</f>
         <v>7374008.04</v>
       </c>
     </row>
@@ -5349,7 +5138,6 @@
         <v>50</v>
       </c>
       <c r="E79" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$94</f>
         <v>2236370</v>
       </c>
     </row>
@@ -5381,7 +5169,6 @@
         <v>50</v>
       </c>
       <c r="E82" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$98</f>
         <v>205561269.88</v>
       </c>
     </row>
@@ -5433,7 +5220,6 @@
         <v>49</v>
       </c>
       <c r="E87" s="98">
-        <f>'[1]Comparison Conso 2019'!$N$105</f>
         <v>4382743.55</v>
       </c>
     </row>
@@ -5445,7 +5231,6 @@
         <v>50</v>
       </c>
       <c r="E88" s="99">
-        <f>'[1]Comparison Conso 2019'!$N$106</f>
         <v>341500</v>
       </c>
     </row>
@@ -5497,7 +5282,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1051275981.45</v>
       </c>
     </row>
@@ -5672,7 +5456,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -5684,7 +5467,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1051275981.45</v>
       </c>
     </row>
@@ -6896,8 +6678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B151A38-8AA7-4E7E-886D-535137BEFA42}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7022,7 +6804,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="73">
-        <f>18139182.36+67235221.45</f>
         <v>85374403.810000002</v>
       </c>
     </row>
@@ -7056,7 +6837,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>157511761.63</v>
       </c>
     </row>
@@ -7099,7 +6879,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="100">
-        <f>24384242.39+270674.19</f>
         <v>24654916.580000002</v>
       </c>
     </row>
@@ -7111,7 +6890,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>225352464.47</v>
       </c>
     </row>
@@ -7302,7 +7080,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1209891170.6500001</v>
       </c>
     </row>
@@ -7879,7 +7656,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>1079577768.6399999</v>
       </c>
     </row>
@@ -8046,7 +7822,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="100">
-        <f>7626977.5+55860732.95</f>
         <v>63487710.450000003</v>
       </c>
     </row>
@@ -8055,7 +7830,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>106420315.04000001</v>
       </c>
     </row>
@@ -8067,7 +7841,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1185998083.6799998</v>
       </c>
     </row>
@@ -9279,8 +9052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF578D2-F309-417B-9A2F-4F3D11FD86B0}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9405,7 +9178,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="103">
-        <f>52175657.7+7349095.67</f>
         <v>59524753.370000005</v>
       </c>
     </row>
@@ -9428,7 +9200,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="103">
-        <f>105475+731225+2220901.92+700+307500+188252.69+93423.46+4597142.45+832586.77</f>
         <v>9077207.2899999991</v>
       </c>
     </row>
@@ -9440,7 +9211,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>124523570.61000001</v>
       </c>
     </row>
@@ -9461,7 +9231,6 @@
         <v>26</v>
       </c>
       <c r="E16" s="103">
-        <f>78540.02+6155219.49+578575+171281.25+1419502.8+272398.25+2728449.97+529960.02+435297.29+667750+253362.31+488531.63</f>
         <v>13778868.030000001</v>
       </c>
     </row>
@@ -9473,7 +9242,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="103">
-        <f>5518763+304055+261483.5+5000+51200</f>
         <v>6140501.5</v>
       </c>
     </row>
@@ -9485,7 +9253,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="103">
-        <f>542016.42+79707.72</f>
         <v>621724.14</v>
       </c>
     </row>
@@ -9497,7 +9264,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>20541093.670000002</v>
       </c>
     </row>
@@ -9688,7 +9454,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>714182660.49000001</v>
       </c>
     </row>
@@ -9745,7 +9510,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="103">
-        <f>114027120</f>
         <v>114027120</v>
       </c>
     </row>
@@ -9757,7 +9521,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="103">
-        <f>33633471.1</f>
         <v>33633471.100000001</v>
       </c>
     </row>
@@ -9957,7 +9720,6 @@
         <v>11</v>
       </c>
       <c r="E63" s="103">
-        <f>66744559.99+37265153.5</f>
         <v>104009713.49000001</v>
       </c>
     </row>
@@ -9969,7 +9731,6 @@
         <v>12</v>
       </c>
       <c r="E64" s="103">
-        <f>25206662.2-24526662.2+50000</f>
         <v>730000</v>
       </c>
     </row>
@@ -10012,7 +9773,6 @@
         <v>12</v>
       </c>
       <c r="E68" s="103">
-        <f>49756284-46703934</f>
         <v>3052350</v>
       </c>
     </row>
@@ -10250,7 +10010,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="103">
-        <f>8509640+6884700</f>
         <v>15394340</v>
       </c>
     </row>
@@ -10262,7 +10021,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="103">
-        <f>915300+345000</f>
         <v>1260300</v>
       </c>
     </row>
@@ -10272,7 +10030,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>751198502.60000002</v>
       </c>
     </row>
@@ -10304,7 +10061,6 @@
         <v>12</v>
       </c>
       <c r="E96" s="103">
-        <f>102694014.26+146519.2</f>
         <v>102840533.46000001</v>
       </c>
       <c r="F96" s="10"/>
@@ -10448,7 +10204,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>297523208.74000001</v>
       </c>
     </row>
@@ -10460,7 +10215,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1048721711.34</v>
       </c>
     </row>
@@ -11672,8 +11426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FB1728-D870-40F7-AAB9-58D9448D4E9F}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11831,7 +11585,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>21759558.149999999</v>
       </c>
     </row>
@@ -11885,7 +11638,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>22530794.300000001</v>
       </c>
     </row>
@@ -12076,7 +11828,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>636191548.45000005</v>
       </c>
     </row>
@@ -12144,7 +11895,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="85">
-        <f>6440831.17+9822788.88+1010199.81</f>
         <v>17273819.859999999</v>
       </c>
     </row>
@@ -12654,7 +12404,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>518729684.60999995</v>
       </c>
     </row>
@@ -12829,7 +12578,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>130553857.39</v>
       </c>
     </row>
@@ -12841,7 +12589,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>649283542</v>
       </c>
     </row>
@@ -12863,8 +12610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB293AF-F645-44BD-B923-1DFD3B550384}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13022,7 +12769,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>70511257.649999991</v>
       </c>
     </row>
@@ -13065,7 +12811,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="106">
-        <f>21321884.24+44614</f>
         <v>21366498.239999998</v>
       </c>
     </row>
@@ -13077,7 +12822,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>38888609.209999993</v>
       </c>
     </row>
@@ -13268,7 +13012,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>697712953.02999997</v>
       </c>
     </row>
@@ -13814,7 +13557,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="105">
-        <f>49550156.19+7136229.37</f>
         <v>56686385.559999995</v>
       </c>
     </row>
@@ -13826,7 +13568,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="105">
-        <f>76009685.89+11172138.42</f>
         <v>87181824.310000002</v>
       </c>
     </row>
@@ -13847,7 +13588,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>549059749.17999995</v>
       </c>
     </row>
@@ -14014,7 +13754,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="105">
-        <f>2936900+31514657.95</f>
         <v>34451557.950000003</v>
       </c>
     </row>
@@ -14023,7 +13762,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>35677746.150000006</v>
       </c>
     </row>
@@ -14035,7 +13773,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>584737495.32999992</v>
       </c>
     </row>
@@ -16437,8 +16174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E9FECE-CDBA-444C-853F-0ABE9B95C866}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16585,7 +16322,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="41">
-        <f>2732522.09+11788080.34</f>
         <v>14520602.43</v>
       </c>
     </row>
@@ -16597,7 +16333,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>48461497.780000001</v>
       </c>
     </row>
@@ -16651,7 +16386,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>42062287.420000002</v>
       </c>
     </row>
@@ -16842,7 +16576,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1100588412.2</v>
       </c>
     </row>
@@ -17419,7 +17152,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>930472797.14999974</v>
       </c>
     </row>
@@ -17594,7 +17326,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>275342517.75999999</v>
       </c>
     </row>
@@ -17606,7 +17337,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1205815314.9099998</v>
       </c>
     </row>
@@ -18818,8 +18548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F783DD-C011-4EA6-9C06-2C127BA3C76A}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18977,7 +18707,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>13594725.57</v>
       </c>
     </row>
@@ -19031,7 +18760,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>27271248.610000003</v>
       </c>
     </row>
@@ -19222,7 +18950,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>501788385.18000001</v>
       </c>
     </row>
@@ -19799,7 +19526,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>357744049.22000009</v>
       </c>
     </row>
@@ -19966,7 +19692,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="55">
-        <f>40154351.97+149600</f>
         <v>40303951.969999999</v>
       </c>
     </row>
@@ -19975,7 +19700,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>45812034.739999995</v>
       </c>
     </row>
@@ -19987,7 +19711,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>403556083.9600001</v>
       </c>
     </row>
@@ -21198,8 +20921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF6573E-5FBC-41E2-A61E-6F17E1CE17F1}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21357,7 +21080,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>13851778.219999999</v>
       </c>
     </row>
@@ -21411,7 +21133,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>19214717.73</v>
       </c>
     </row>
@@ -21591,7 +21312,6 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="107">
-        <f>28043428.2+66415503.16</f>
         <v>94458931.359999999</v>
       </c>
     </row>
@@ -21603,7 +21323,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>685140752.15999997</v>
       </c>
     </row>
@@ -22180,7 +21899,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>544804374.2700001</v>
       </c>
     </row>
@@ -22355,7 +22073,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>94458931.359999999</v>
       </c>
     </row>
@@ -22367,7 +22084,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="65">
-        <f>SUM(E93,E111)</f>
         <v>639263305.63000011</v>
       </c>
     </row>
@@ -22389,8 +22105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E1C0D5-92D8-45B1-805B-D2EA38DB16A5}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22548,7 +22264,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>11625585.290000001</v>
       </c>
     </row>
@@ -22602,7 +22317,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>21259637.170000002</v>
       </c>
     </row>
@@ -22793,7 +22507,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>745244175.10000002</v>
       </c>
     </row>
@@ -23370,7 +23083,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>592420227.48000002</v>
       </c>
     </row>
@@ -23537,7 +23249,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="56">
-        <f>42408765.85+2015301+2651696.31</f>
         <v>47075763.160000004</v>
       </c>
     </row>
@@ -23546,7 +23257,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>103145912.34</v>
       </c>
     </row>
@@ -23558,7 +23268,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>695566139.82000005</v>
       </c>
     </row>
